--- a/biology/Zoologie/Henochilus_wheatlandii/Henochilus_wheatlandii.xlsx
+++ b/biology/Zoologie/Henochilus_wheatlandii/Henochilus_wheatlandii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henochilus
 Henochilus wheatlandii, unique représentant du genre Henochilus, est une espèce de poissons d'eau douce de la famille des Bryconidae (ordre des Characiformes).
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henochilus wheatlandii est endémique du Brésil et se rencontre dans les bassins du rio Mucuri (en) et du rio Doce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henochilus wheatlandii est endémique du Brésil et se rencontre dans les bassins du rio Mucuri (en) et du rio Doce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henochilus wheatlandii peut mesurer jusqu'à 413 mm, queue non comprise[1]. Cette espèce se nourrit de plantes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henochilus wheatlandii peut mesurer jusqu'à 413 mm, queue non comprise. Cette espèce se nourrit de plantes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Henochilus et l'espèce Henochilus wheatlandii ont été décrits en 1890 par le zoologiste américain Samuel Garman (1843–1927)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Henochilus et l'espèce Henochilus wheatlandii ont été décrits en 1890 par le zoologiste américain Samuel Garman (1843–1927),.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Henochilus, combinaison des termes en grec ancien ἕν, hen, « un », et χεῖλος, kheĩlos, « lèvre », et fait référence à la présence d'une lèvre à la mâchoire inférieure mais pas à la supérieure[4].
-L'épithète spécifique, wheatlandii, a été donnée en l'honneur du naturaliste américain Henry Wheatland (d) (1812-1893) pour « son intérêt amical et sa sympathie envers l'ichtyologie et les ichtyologistes »[4].    
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Henochilus, combinaison des termes en grec ancien ἕν, hen, « un », et χεῖλος, kheĩlos, « lèvre », et fait référence à la présence d'une lèvre à la mâchoire inférieure mais pas à la supérieure.
+L'épithète spécifique, wheatlandii, a été donnée en l'honneur du naturaliste américain Henry Wheatland (d) (1812-1893) pour « son intérêt amical et sa sympathie envers l'ichtyologie et les ichtyologistes ».    
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) S. Garman, « On a genus and species of the characines (Henochilus Wheatlandii, gen. n. et sp. n.) », Bulletin of the Essex Institute, Salem (États-Unis), vol. 22, nos 4-6,‎ 1890, p. 49-52 (ISSN 0732-4952, lire en ligne, consulté le 28 novembre 2023).</t>
         </is>
